--- a/biology/Mycologie/Stropharia/Stropharia.xlsx
+++ b/biology/Mycologie/Stropharia/Stropharia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stropharia (les strophaires) est un genre de champignons basidiomycètes de la famille des strophariacées. Leur nom est tiré du grec Strophos signifiant « ceinture », sans doute en référence à l'anneau ou à la trace d'anneau qu'ils portent souvent.
 Ce sont des champignons de taille relativement modeste (diamètre du chapeau 4 à 8 cm), fragiles, poussant sur la sciure, le crottin ou l'humus des bois. Selon les espèces, leur comestibilité est inconnue, douteuse ou médiocre, sauf le Strophaire à anneau rugueux (ou Strophaire rouge vin) qui est grand (le chapeau eut atteindre une quinzaine de centimètres de diamètre)  et comestible bien qu'il cause des douleurs à l'estomac quand consommé trop souvent.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Stropharia compte une vingtaine d'espèces. L'espèce type est Stropharia aeruginosa, le Strophaire vert-de-gris.
 Stropharia albonitens (Fr.) P. Karst. 1879 - Strophaire blanc soyeux
@@ -532,7 +546,7 @@
 Stropharia percevalii (Berk. &amp; Broome) Sacc. [as 'percevali']
 Stropharia pseudocyanea (Desm.) Morgan, (1908) - Strophaire blanc bleuté
 Stropharia rugosoannulata Farl. ex Murrill (1922) - Strophaire à anneau rugueux ou Strophaire rouge vin
-Stropharia semiglobata sensu Massee (1899) [1898] - Strophaire hémisphérique Photo.
+Stropharia semiglobata sensu Massee (1899)  - Strophaire hémisphérique Photo.
 Stropharia semiorbicularis
 Stropharia stercoraria (Schumach. : Fr.) Quél. (1872)
 Stropharia subuda (Cleland) Grgur. (1997)
@@ -567,7 +581,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)
  Portail de la mycologie                     </t>
